--- a/pred_ohlcv/54_21/2019-10-21 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 MTL ohlcv.xlsx
@@ -2550,7 +2550,7 @@
         <v>73076.28125667997</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>73078.41485667997</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>70657.34084342998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>70658.34084342998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>70658.34084342998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>61007.75714342998</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>60527.53304342998</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>61147.09104342997</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>58131.03644342997</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>58131.03644342997</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>66411.74807675996</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>66412.74807675996</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>66412.74807675996</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>49931.11637675996</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>49932.11637675996</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>49931.11637675996</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>49929.11637675996</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>50017.50867675996</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>50017.50867675996</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>50018.50867675996</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>49780.05877675996</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>49173.58797675996</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>49174.58797675996</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>49174.58797675996</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>49020.58797675996</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-48332.16331064005</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-48332.16331064005</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-48701.16331064005</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-48536.26791064005</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-46846.63941064005</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-49139.20131064005</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-49139.20131064005</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-50616.15761064005</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-36611.62031064004</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-40534.24401064004</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-40489.24401064004</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-40821.35501064004</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-38112.75501064004</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-38267.75501064004</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-33234.84021064004</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-33234.84021064004</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-37202.22301064004</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-33212.18391064004</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-33217.18391064004</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-33217.18391064004</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-21 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 MTL ohlcv.xlsx
@@ -2550,7 +2550,7 @@
         <v>73076.28125667997</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>73078.41485667997</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>70657.34084342998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>70657.34084342998</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>70658.34084342998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>70658.34084342998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>68065.18534342998</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>71285.18534342998</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>69824.54654342998</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>69825.54654342998</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>61006.75714342998</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>61007.75714342998</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>60527.53304342998</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>61147.09104342997</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>58131.03644342997</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>58131.03644342997</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>66464.36977675997</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>66411.74807675996</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>66412.74807675996</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>66412.74807675996</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>49931.11637675996</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>49932.11637675996</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>49931.11637675996</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>49929.11637675996</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>50017.50867675996</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>50018.50867675996</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>49173.58797675996</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>49174.58797675996</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>49020.58797675996</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>59554.71957675996</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>39180.85057675996</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-48536.26791064005</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-46846.63941064005</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-49567.18711064005</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-50414.29031064005</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-49139.20131064005</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-49139.20131064005</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-49214.10891064005</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-49795.28701064004</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-50616.15761064005</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-44258.82101064004</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-36611.62031064004</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-40534.24401064004</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-40489.24401064004</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-40821.35501064004</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-38112.75501064004</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-38267.75501064004</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-33234.84021064004</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-33234.84021064004</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-37202.22301064004</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-34047.18391064004</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-33212.18391064004</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-33217.18391064004</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-33217.18391064004</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-33117.18391064004</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
